--- a/doginfo.xlsx
+++ b/doginfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dongh\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dongh\OneDrive\바탕 화면\homemade_recommend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C639F126-6ACC-48DC-8613-9C174D9184BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F266456-7FF5-4CA0-96F1-6EABCAEC2905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C81F150-8304-462B-9742-A3C93F6FCA4F}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="16785" windowHeight="11385" xr2:uid="{4C81F150-8304-462B-9742-A3C93F6FCA4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="126">
   <si>
     <t>breed</t>
   </si>
@@ -90,9 +90,6 @@
     <t>allergy6</t>
   </si>
   <si>
-    <t>allergy7</t>
-  </si>
-  <si>
     <t>tool1</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>치와와</t>
   </si>
   <si>
-    <t>입력해 주세요</t>
-  </si>
-  <si>
     <t>초롱</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t>잭러셀테리어</t>
   </si>
   <si>
-    <t>오리고기</t>
-  </si>
-  <si>
     <t>포도</t>
   </si>
   <si>
@@ -204,9 +195,6 @@
     <t>말티즈</t>
   </si>
   <si>
-    <t>오이</t>
-  </si>
-  <si>
     <t>콩순이</t>
   </si>
   <si>
@@ -261,18 +249,12 @@
     <t>알콩</t>
   </si>
   <si>
-    <t>모르겠습니다</t>
-  </si>
-  <si>
     <t>우리</t>
   </si>
   <si>
     <t>설기</t>
   </si>
   <si>
-    <t>없어요. 굳이뽑자면 명태를 맨 마지막에 먹음..</t>
-  </si>
-  <si>
     <t>똘똘이</t>
   </si>
   <si>
@@ -312,21 +294,12 @@
     <t>별</t>
   </si>
   <si>
-    <t>딱딱한걸싫어해요</t>
-  </si>
-  <si>
     <t>여르미</t>
   </si>
   <si>
-    <t>가공품</t>
-  </si>
-  <si>
     <t>율무</t>
   </si>
   <si>
-    <t>캥거루</t>
-  </si>
-  <si>
     <t>시고르자브종</t>
   </si>
   <si>
@@ -360,9 +333,6 @@
     <t>폼스키</t>
   </si>
   <si>
-    <t>돼지</t>
-  </si>
-  <si>
     <t>몽실</t>
   </si>
   <si>
@@ -378,27 +348,18 @@
     <t>미르</t>
   </si>
   <si>
-    <t>없음</t>
-  </si>
-  <si>
     <t>더블</t>
   </si>
   <si>
     <t>폼피치</t>
   </si>
   <si>
-    <t xml:space="preserve">없음 </t>
-  </si>
-  <si>
     <t>두부</t>
   </si>
   <si>
     <t>비숑</t>
   </si>
   <si>
-    <t>정확히알수없어요</t>
-  </si>
-  <si>
     <t>휴지</t>
   </si>
   <si>
@@ -429,9 +390,6 @@
     <t>동슬이</t>
   </si>
   <si>
-    <t>생선류</t>
-  </si>
-  <si>
     <t>감자</t>
   </si>
   <si>
@@ -448,9 +406,6 @@
   </si>
   <si>
     <t>파슨러셀테리어</t>
-  </si>
-  <si>
-    <t>뼈가붙은돼지고기</t>
   </si>
   <si>
     <t>이보름</t>
@@ -839,15 +794,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E31A272-9BF2-4EC1-A81E-427A80DBA35A}">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -901,30 +856,28 @@
         <v>16</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C2" s="1">
         <v>132</v>
@@ -989,16 +942,14 @@
       <c r="W2" s="1">
         <v>0</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC2" s="1"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>180</v>
@@ -1063,16 +1014,14 @@
       <c r="W3" s="1">
         <v>0</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1">
         <v>132</v>
@@ -1137,16 +1086,14 @@
       <c r="W4" s="1">
         <v>0</v>
       </c>
-      <c r="AC4" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1">
         <v>36</v>
@@ -1211,16 +1158,14 @@
       <c r="W5" s="1">
         <v>0</v>
       </c>
-      <c r="AC5" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1">
         <v>36</v>
@@ -1285,16 +1230,14 @@
       <c r="W6" s="1">
         <v>0</v>
       </c>
-      <c r="AC6" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1">
         <v>24</v>
@@ -1359,16 +1302,14 @@
       <c r="W7" s="1">
         <v>0</v>
       </c>
-      <c r="AC7" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
@@ -1433,16 +1374,14 @@
       <c r="W8" s="1">
         <v>0</v>
       </c>
-      <c r="AC8" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1">
         <v>96</v>
@@ -1507,16 +1446,14 @@
       <c r="W9" s="1">
         <v>0</v>
       </c>
-      <c r="AC9" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC9" s="1"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1">
         <v>48</v>
@@ -1581,16 +1518,14 @@
       <c r="W10" s="1">
         <v>0</v>
       </c>
-      <c r="AC10" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1">
         <v>96</v>
@@ -1655,16 +1590,14 @@
       <c r="W11" s="1">
         <v>0</v>
       </c>
-      <c r="AC11" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1">
         <v>36</v>
@@ -1729,16 +1662,14 @@
       <c r="W12" s="1">
         <v>0</v>
       </c>
-      <c r="AC12" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1">
         <v>132</v>
@@ -1803,16 +1734,14 @@
       <c r="W13" s="1">
         <v>0</v>
       </c>
-      <c r="AC13" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1">
         <v>144</v>
@@ -1877,16 +1806,14 @@
       <c r="W14" s="1">
         <v>0</v>
       </c>
-      <c r="AC14" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1">
         <v>24</v>
@@ -1951,16 +1878,14 @@
       <c r="W15" s="1">
         <v>0</v>
       </c>
-      <c r="AC15" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC15" s="1"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1">
         <v>120</v>
@@ -2025,16 +1950,14 @@
       <c r="W16" s="1">
         <v>0</v>
       </c>
-      <c r="AC16" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
         <v>8</v>
@@ -2099,16 +2022,14 @@
       <c r="W17" s="1">
         <v>0</v>
       </c>
-      <c r="AC17" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1">
         <v>13</v>
@@ -2173,16 +2094,14 @@
       <c r="W18" s="1">
         <v>0</v>
       </c>
-      <c r="AC18" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC18" s="1"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1">
         <v>108</v>
@@ -2247,16 +2166,14 @@
       <c r="W19" s="1">
         <v>0</v>
       </c>
-      <c r="AC19" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="AC19" s="1"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1">
         <v>48</v>
@@ -2321,16 +2238,14 @@
       <c r="W20" s="1">
         <v>0</v>
       </c>
-      <c r="AC20" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC20" s="1"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
         <v>24</v>
@@ -2395,16 +2310,14 @@
       <c r="W21" s="1">
         <v>0</v>
       </c>
-      <c r="AC21" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC21" s="1"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1">
         <v>24</v>
@@ -2469,16 +2382,14 @@
       <c r="W22" s="1">
         <v>0</v>
       </c>
-      <c r="AC22" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC22" s="1"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1">
         <v>36</v>
@@ -2543,16 +2454,14 @@
       <c r="W23" s="1">
         <v>0</v>
       </c>
-      <c r="AC23" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC23" s="1"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1">
         <v>60</v>
@@ -2617,16 +2526,14 @@
       <c r="W24" s="1">
         <v>0</v>
       </c>
-      <c r="AC24" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC24" s="1"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1">
         <v>36</v>
@@ -2691,16 +2598,14 @@
       <c r="W25" s="1">
         <v>0</v>
       </c>
-      <c r="AC25" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC25" s="1"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1">
         <v>156</v>
@@ -2765,16 +2670,14 @@
       <c r="W26" s="1">
         <v>0</v>
       </c>
-      <c r="AC26" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC26" s="1"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1">
         <v>7</v>
@@ -2839,16 +2742,14 @@
       <c r="W27" s="1">
         <v>0</v>
       </c>
-      <c r="AC27" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC27" s="1"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1">
         <v>60</v>
@@ -2913,16 +2814,14 @@
       <c r="W28" s="1">
         <v>0</v>
       </c>
-      <c r="AC28" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC28" s="1"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1">
         <v>60</v>
@@ -2987,16 +2886,14 @@
       <c r="W29" s="1">
         <v>0</v>
       </c>
-      <c r="AC29" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC29" s="1"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1">
         <v>24</v>
@@ -3061,16 +2958,14 @@
       <c r="W30" s="1">
         <v>0</v>
       </c>
-      <c r="AC30" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC30" s="1"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C31" s="1">
         <v>11</v>
@@ -3135,16 +3030,14 @@
       <c r="W31" s="1">
         <v>0</v>
       </c>
-      <c r="AC31" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC31" s="1"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1">
         <v>72</v>
@@ -3209,16 +3102,14 @@
       <c r="W32" s="1">
         <v>0</v>
       </c>
-      <c r="AC32" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC32" s="1"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
         <v>36</v>
@@ -3283,16 +3174,14 @@
       <c r="W33" s="1">
         <v>0</v>
       </c>
-      <c r="AC33" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="AC33" s="1"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C34" s="1">
         <v>60</v>
@@ -3357,16 +3246,14 @@
       <c r="W34" s="1">
         <v>0</v>
       </c>
-      <c r="AC34" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC34" s="1"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1">
         <v>36</v>
@@ -3431,16 +3318,14 @@
       <c r="W35" s="1">
         <v>0</v>
       </c>
-      <c r="AC35" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="AC35" s="1"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C36" s="1">
         <v>36</v>
@@ -3505,16 +3390,14 @@
       <c r="W36" s="1">
         <v>0</v>
       </c>
-      <c r="AC36" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC36" s="1"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1">
         <v>24</v>
@@ -3579,16 +3462,14 @@
       <c r="W37" s="1">
         <v>0</v>
       </c>
-      <c r="AC37" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC37" s="1"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C38" s="1">
         <v>132</v>
@@ -3653,16 +3534,14 @@
       <c r="W38" s="1">
         <v>0</v>
       </c>
-      <c r="AC38" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC38" s="1"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C39" s="1">
         <v>108</v>
@@ -3727,16 +3606,14 @@
       <c r="W39" s="1">
         <v>0</v>
       </c>
-      <c r="AC39" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC39" s="1"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1">
         <v>5</v>
@@ -3801,16 +3678,14 @@
       <c r="W40" s="1">
         <v>0</v>
       </c>
-      <c r="AC40" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC40" s="1"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C41" s="1">
         <v>168</v>
@@ -3875,16 +3750,14 @@
       <c r="W41" s="1">
         <v>0</v>
       </c>
-      <c r="AC41" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC41" s="1"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C42" s="1">
         <v>20</v>
@@ -3949,16 +3822,14 @@
       <c r="W42" s="1">
         <v>0</v>
       </c>
-      <c r="AC42" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC42" s="1"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C43" s="1">
         <v>3</v>
@@ -4023,16 +3894,14 @@
       <c r="W43" s="1">
         <v>0</v>
       </c>
-      <c r="AC43" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC43" s="1"/>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C44" s="1">
         <v>36</v>
@@ -4097,16 +3966,14 @@
       <c r="W44" s="1">
         <v>0</v>
       </c>
-      <c r="AC44" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC44" s="1"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C45" s="1">
         <v>132</v>
@@ -4171,16 +4038,14 @@
       <c r="W45" s="1">
         <v>0</v>
       </c>
-      <c r="AC45" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="AC45" s="1"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C46" s="1">
         <v>36</v>
@@ -4245,16 +4110,14 @@
       <c r="W46" s="1">
         <v>0</v>
       </c>
-      <c r="AC46" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="AC46" s="1"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C47" s="1">
         <v>12</v>
@@ -4319,16 +4182,14 @@
       <c r="W47" s="1">
         <v>0</v>
       </c>
-      <c r="AC47" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="AC47" s="1"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C48" s="1">
         <v>12</v>
@@ -4393,16 +4254,14 @@
       <c r="W48" s="1">
         <v>0</v>
       </c>
-      <c r="AC48" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="AC48" s="1"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C49" s="1">
         <v>6</v>
@@ -4467,16 +4326,14 @@
       <c r="W49" s="1">
         <v>0</v>
       </c>
-      <c r="AC49" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC49" s="1"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C50" s="1">
         <v>96</v>
@@ -4541,16 +4398,14 @@
       <c r="W50" s="1">
         <v>0</v>
       </c>
-      <c r="AC50" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC50" s="1"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C51" s="1">
         <v>60</v>
@@ -4615,16 +4470,14 @@
       <c r="W51" s="1">
         <v>0</v>
       </c>
-      <c r="AC51" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC51" s="1"/>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C52" s="1">
         <v>132</v>
@@ -4689,16 +4542,14 @@
       <c r="W52" s="1">
         <v>0</v>
       </c>
-      <c r="AC52" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC52" s="1"/>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C53" s="1">
         <v>72</v>
@@ -4763,16 +4614,14 @@
       <c r="W53" s="1">
         <v>0</v>
       </c>
-      <c r="AC53" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC53" s="1"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C54" s="1">
         <v>12</v>
@@ -4837,16 +4686,14 @@
       <c r="W54" s="1">
         <v>0</v>
       </c>
-      <c r="AC54" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC54" s="1"/>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C55" s="1">
         <v>120</v>
@@ -4911,16 +4758,14 @@
       <c r="W55" s="1">
         <v>0</v>
       </c>
-      <c r="AC55" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC55" s="1"/>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C56" s="1">
         <v>12</v>
@@ -4985,16 +4830,14 @@
       <c r="W56" s="1">
         <v>0</v>
       </c>
-      <c r="AC56" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC56" s="1"/>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C57" s="1">
         <v>9</v>
@@ -5059,16 +4902,14 @@
       <c r="W57" s="1">
         <v>0</v>
       </c>
-      <c r="AC57" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC57" s="1"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C58" s="1">
         <v>5</v>
@@ -5133,16 +4974,14 @@
       <c r="W58" s="1">
         <v>0</v>
       </c>
-      <c r="AC58" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC58" s="1"/>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C59" s="1">
         <v>48</v>
@@ -5207,16 +5046,14 @@
       <c r="W59" s="1">
         <v>0</v>
       </c>
-      <c r="AC59" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="AC59" s="1"/>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C60" s="1">
         <v>60</v>
@@ -5281,16 +5118,14 @@
       <c r="W60" s="1">
         <v>0</v>
       </c>
-      <c r="AC60" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC60" s="1"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C61" s="1">
         <v>24</v>
@@ -5355,16 +5190,14 @@
       <c r="W61" s="1">
         <v>0</v>
       </c>
-      <c r="AC61" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC61" s="1"/>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C62" s="1">
         <v>6</v>
@@ -5429,16 +5262,14 @@
       <c r="W62" s="1">
         <v>0</v>
       </c>
-      <c r="AC62" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC62" s="1"/>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C63" s="1">
         <v>4</v>
@@ -5503,16 +5334,14 @@
       <c r="W63" s="1">
         <v>0</v>
       </c>
-      <c r="AC63" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC63" s="1"/>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C64" s="1">
         <v>7</v>
@@ -5577,16 +5406,14 @@
       <c r="W64" s="1">
         <v>0</v>
       </c>
-      <c r="AC64" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC64" s="1"/>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C65" s="1">
         <v>60</v>
@@ -5651,16 +5478,14 @@
       <c r="W65" s="1">
         <v>0</v>
       </c>
-      <c r="AC65" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="AC65" s="1"/>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C66" s="1">
         <v>132</v>
@@ -5725,16 +5550,14 @@
       <c r="W66" s="1">
         <v>0</v>
       </c>
-      <c r="AC66" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="AC66" s="1"/>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C67" s="1">
         <v>30</v>
@@ -5799,16 +5622,14 @@
       <c r="W67" s="1">
         <v>0</v>
       </c>
-      <c r="AC67" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="AC67" s="1"/>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C68" s="1">
         <v>12</v>
@@ -5873,16 +5694,14 @@
       <c r="W68" s="1">
         <v>0</v>
       </c>
-      <c r="AC68" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC68" s="1"/>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C69" s="1">
         <v>36</v>
@@ -5947,16 +5766,14 @@
       <c r="W69" s="1">
         <v>0</v>
       </c>
-      <c r="AC69" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC69" s="1"/>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C70" s="1">
         <v>12</v>
@@ -6021,16 +5838,14 @@
       <c r="W70" s="1">
         <v>0</v>
       </c>
-      <c r="AC70" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC70" s="1"/>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C71" s="1">
         <v>5</v>
@@ -6095,16 +5910,14 @@
       <c r="W71" s="1">
         <v>0</v>
       </c>
-      <c r="AC71" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC71" s="1"/>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C72" s="1">
         <v>11</v>
@@ -6169,16 +5982,14 @@
       <c r="W72" s="1">
         <v>0</v>
       </c>
-      <c r="AC72" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC72" s="1"/>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C73" s="1">
         <v>48</v>
@@ -6243,16 +6054,14 @@
       <c r="W73" s="1">
         <v>0</v>
       </c>
-      <c r="AC73" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC73" s="1"/>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C74" s="1">
         <v>96</v>
@@ -6317,16 +6126,14 @@
       <c r="W74" s="1">
         <v>0</v>
       </c>
-      <c r="AC74" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC74" s="1"/>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C75" s="1">
         <v>84</v>
@@ -6391,16 +6198,14 @@
       <c r="W75" s="1">
         <v>0</v>
       </c>
-      <c r="AC75" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC75" s="1"/>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C76" s="1">
         <v>132</v>
@@ -6465,16 +6270,14 @@
       <c r="W76" s="1">
         <v>0</v>
       </c>
-      <c r="AC76" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC76" s="1"/>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C77" s="1">
         <v>40</v>
@@ -6539,16 +6342,14 @@
       <c r="W77" s="1">
         <v>0</v>
       </c>
-      <c r="AC77" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC77" s="1"/>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C78" s="1">
         <v>12</v>
@@ -6613,16 +6414,14 @@
       <c r="W78" s="1">
         <v>0</v>
       </c>
-      <c r="AC78" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC78" s="1"/>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C79" s="1">
         <v>96</v>
@@ -6687,16 +6486,14 @@
       <c r="W79" s="1">
         <v>0</v>
       </c>
-      <c r="AC79" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC79" s="1"/>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C80" s="1">
         <v>72</v>
@@ -6761,16 +6558,14 @@
       <c r="W80" s="1">
         <v>0</v>
       </c>
-      <c r="AC80" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC80" s="1"/>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C81" s="1">
         <v>36</v>
@@ -6835,16 +6630,14 @@
       <c r="W81" s="1">
         <v>0</v>
       </c>
-      <c r="AC81" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="AC81" s="1"/>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C82" s="1">
         <v>24</v>
@@ -6909,16 +6702,14 @@
       <c r="W82" s="1">
         <v>0</v>
       </c>
-      <c r="AC82" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC82" s="1"/>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C83" s="1">
         <v>12</v>
@@ -6983,16 +6774,14 @@
       <c r="W83" s="1">
         <v>0</v>
       </c>
-      <c r="AC83" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC83" s="1"/>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C84" s="1">
         <v>24</v>
@@ -7057,16 +6846,14 @@
       <c r="W84" s="1">
         <v>0</v>
       </c>
-      <c r="AC84" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC84" s="1"/>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C85" s="1">
         <v>96</v>
@@ -7131,16 +6918,14 @@
       <c r="W85" s="1">
         <v>0</v>
       </c>
-      <c r="AC85" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="AC85" s="1"/>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C86" s="1">
         <v>48</v>
@@ -7205,16 +6990,14 @@
       <c r="W86" s="1">
         <v>0</v>
       </c>
-      <c r="AC86" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC86" s="1"/>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C87" s="1">
         <v>36</v>
@@ -7279,16 +7062,14 @@
       <c r="W87" s="1">
         <v>0</v>
       </c>
-      <c r="AC87" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC87" s="1"/>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C88" s="1">
         <v>24</v>
@@ -7353,16 +7134,14 @@
       <c r="W88" s="1">
         <v>0</v>
       </c>
-      <c r="AC88" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC88" s="1"/>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C89" s="1">
         <v>12</v>
@@ -7427,16 +7206,14 @@
       <c r="W89" s="1">
         <v>0</v>
       </c>
-      <c r="AC89" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC89" s="1"/>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C90" s="1">
         <v>24</v>
@@ -7501,16 +7278,14 @@
       <c r="W90" s="1">
         <v>0</v>
       </c>
-      <c r="AC90" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC90" s="1"/>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C91" s="1">
         <v>96</v>
@@ -7575,16 +7350,14 @@
       <c r="W91" s="1">
         <v>0</v>
       </c>
-      <c r="AC91" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="AC91" s="1"/>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C92" s="1">
         <v>48</v>
@@ -7649,16 +7422,14 @@
       <c r="W92" s="1">
         <v>0</v>
       </c>
-      <c r="AC92" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC92" s="1"/>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C93" s="1">
         <v>36</v>
@@ -7723,9 +7494,7 @@
       <c r="W93" s="1">
         <v>0</v>
       </c>
-      <c r="AC93" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AC93" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/doginfo.xlsx
+++ b/doginfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dongh\OneDrive\바탕 화면\homemade_recommend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F266456-7FF5-4CA0-96F1-6EABCAEC2905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D8860B-E3E2-4275-8759-D763BAE7B706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="16785" windowHeight="11385" xr2:uid="{4C81F150-8304-462B-9742-A3C93F6FCA4F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C81F150-8304-462B-9742-A3C93F6FCA4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="127">
   <si>
     <t>breed</t>
   </si>
@@ -415,6 +415,10 @@
   </si>
   <si>
     <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -794,105 +798,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E31A272-9BF2-4EC1-A81E-427A80DBA35A}">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AF21" sqref="AF21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>132</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -901,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1">
         <v>0</v>
@@ -928,35 +935,38 @@
         <v>0</v>
       </c>
       <c r="S2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" s="1">
         <v>0</v>
       </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
       <c r="AC2" s="1"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>180</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
@@ -964,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -976,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
       </c>
       <c r="M3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -1000,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="1">
         <v>1</v>
@@ -1009,26 +1019,29 @@
         <v>1</v>
       </c>
       <c r="V3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="1">
         <v>0</v>
       </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>132</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
@@ -1038,7 +1051,7 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4">
@@ -1053,7 +1066,7 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>0</v>
       </c>
       <c r="N4" s="1">
@@ -1072,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1">
         <v>1</v>
@@ -1081,51 +1094,54 @@
         <v>1</v>
       </c>
       <c r="V4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="1">
         <v>0</v>
       </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>36</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>0</v>
       </c>
       <c r="N5" s="1">
@@ -1144,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1">
         <v>1</v>
@@ -1153,26 +1169,29 @@
         <v>1</v>
       </c>
       <c r="V5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="1">
         <v>0</v>
       </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>36</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
@@ -1182,22 +1201,22 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>1</v>
+      <c r="H6" s="1">
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>0</v>
       </c>
       <c r="N6" s="1">
@@ -1207,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
         <v>1</v>
@@ -1225,26 +1244,29 @@
         <v>1</v>
       </c>
       <c r="V6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="1">
         <v>0</v>
       </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
       <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>24</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
@@ -1254,7 +1276,7 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7">
@@ -1269,7 +1291,7 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
         <v>0</v>
       </c>
       <c r="N7" s="1">
@@ -1279,44 +1301,47 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
         <v>1</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="1">
         <v>0</v>
       </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
       <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
@@ -1326,7 +1351,7 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8">
@@ -1341,7 +1366,7 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
         <v>0</v>
       </c>
       <c r="N8" s="1">
@@ -1360,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
         <v>1</v>
       </c>
       <c r="U8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="1">
         <v>0</v>
@@ -1374,21 +1399,24 @@
       <c r="W8" s="1">
         <v>0</v>
       </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
       <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>96</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
@@ -1398,8 +1426,8 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>1</v>
+      <c r="H9" s="1">
+        <v>0</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1408,12 +1436,12 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9">
         <v>0</v>
       </c>
       <c r="N9" s="1">
@@ -1432,35 +1460,38 @@
         <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="1">
         <v>0</v>
       </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
       <c r="AC9" s="1"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>48</v>
       </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
@@ -1470,8 +1501,8 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10">
-        <v>1</v>
+      <c r="H10" s="1">
+        <v>0</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1485,8 +1516,8 @@
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10" s="1">
-        <v>0</v>
+      <c r="M10">
+        <v>1</v>
       </c>
       <c r="N10" s="1">
         <v>0</v>
@@ -1504,60 +1535,63 @@
         <v>0</v>
       </c>
       <c r="S10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="1">
         <v>0</v>
       </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
       <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>96</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>1</v>
+      <c r="H11" s="1">
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <v>0</v>
       </c>
       <c r="N11" s="1">
@@ -1576,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="1">
         <v>1</v>
@@ -1585,26 +1619,29 @@
         <v>1</v>
       </c>
       <c r="V11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" s="1">
         <v>0</v>
       </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>36</v>
       </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
@@ -1612,9 +1649,9 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
         <v>1</v>
       </c>
       <c r="I12">
@@ -1629,8 +1666,8 @@
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
+      <c r="M12">
+        <v>1</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
@@ -1651,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
@@ -1662,31 +1699,34 @@
       <c r="W12" s="1">
         <v>0</v>
       </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>132</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13">
@@ -1701,7 +1741,7 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13">
         <v>0</v>
       </c>
       <c r="N13" s="1">
@@ -1720,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
         <v>1</v>
@@ -1729,26 +1769,29 @@
         <v>1</v>
       </c>
       <c r="V13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="1">
         <v>0</v>
       </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>144</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
@@ -1758,7 +1801,7 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>1</v>
       </c>
       <c r="I14">
@@ -1773,8 +1816,8 @@
       <c r="L14">
         <v>1</v>
       </c>
-      <c r="M14" s="1">
-        <v>0</v>
+      <c r="M14">
+        <v>1</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
@@ -1792,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
         <v>1</v>
@@ -1801,26 +1844,29 @@
         <v>1</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="1">
         <v>0</v>
       </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>24</v>
       </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
@@ -1840,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1">
         <v>1</v>
       </c>
       <c r="M15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
@@ -1864,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="1">
         <v>1</v>
@@ -1873,26 +1919,29 @@
         <v>1</v>
       </c>
       <c r="V15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="1">
         <v>0</v>
       </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
       <c r="AC15" s="1"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>120</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
       <c r="E16" s="1">
         <v>0</v>
       </c>
@@ -1903,16 +1952,16 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1">
         <v>0</v>
@@ -1927,16 +1976,16 @@
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="1">
         <v>1</v>
@@ -1945,26 +1994,29 @@
         <v>1</v>
       </c>
       <c r="V16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" s="1">
         <v>0</v>
       </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>8</v>
       </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
       <c r="E17" s="1">
         <v>0</v>
       </c>
@@ -1975,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -1990,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
@@ -2008,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="1">
         <v>1</v>
@@ -2017,26 +2069,29 @@
         <v>1</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="1">
         <v>0</v>
       </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>13</v>
       </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
       <c r="E18" s="1">
         <v>0</v>
       </c>
@@ -2050,19 +2105,19 @@
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
@@ -2074,43 +2129,46 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
       </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
       <c r="AC18" s="1"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>108</v>
       </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2119,19 +2177,19 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
       </c>
       <c r="L19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -2152,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" s="1">
         <v>1</v>
       </c>
       <c r="U19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="1">
         <v>0</v>
@@ -2166,32 +2224,35 @@
       <c r="W19" s="1">
         <v>0</v>
       </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
       <c r="AC19" s="1"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>48</v>
       </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
       <c r="E20" s="1">
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
@@ -2200,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
@@ -2224,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="S20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="1">
         <v>1</v>
       </c>
       <c r="U20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="1">
         <v>0</v>
@@ -2238,32 +2299,35 @@
       <c r="W20" s="1">
         <v>0</v>
       </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
       <c r="AC20" s="1"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>24</v>
       </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -2278,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -2296,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="S21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="1">
         <v>0</v>
@@ -2310,21 +2374,24 @@
       <c r="W21" s="1">
         <v>0</v>
       </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
       <c r="AC21" s="1"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>24</v>
       </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
       <c r="E22" s="1">
         <v>0</v>
       </c>
@@ -2335,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -2344,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="1">
         <v>0</v>
@@ -2368,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="1">
         <v>1</v>
@@ -2377,26 +2444,29 @@
         <v>1</v>
       </c>
       <c r="V22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="1">
         <v>0</v>
       </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
       <c r="AC22" s="1"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>36</v>
       </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
       <c r="E23" s="1">
         <v>0</v>
       </c>
@@ -2407,16 +2477,16 @@
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="1">
         <v>0</v>
@@ -2440,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="1">
         <v>1</v>
@@ -2449,37 +2519,40 @@
         <v>1</v>
       </c>
       <c r="V23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="1">
         <v>0</v>
       </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
       <c r="AC23" s="1"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>60</v>
       </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1">
         <v>1</v>
@@ -2491,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -2512,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" s="1">
         <v>1</v>
@@ -2521,26 +2594,29 @@
         <v>1</v>
       </c>
       <c r="V24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" s="1">
         <v>0</v>
       </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
       <c r="AC24" s="1"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>36</v>
       </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
       <c r="E25" s="1">
         <v>0</v>
       </c>
@@ -2551,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
@@ -2566,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="1">
         <v>0</v>
@@ -2584,43 +2660,46 @@
         <v>0</v>
       </c>
       <c r="S25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" s="1">
         <v>0</v>
       </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
       <c r="AC25" s="1"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>156</v>
       </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
         <v>1</v>
@@ -2632,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1">
         <v>0</v>
@@ -2656,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" s="1">
         <v>1</v>
@@ -2665,26 +2744,29 @@
         <v>1</v>
       </c>
       <c r="V26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="1">
         <v>0</v>
       </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
       <c r="AC26" s="1"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>7</v>
       </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
       <c r="E27" s="1">
         <v>0</v>
       </c>
@@ -2695,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1">
         <v>1</v>
@@ -2710,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="1">
         <v>0</v>
@@ -2719,16 +2801,16 @@
         <v>0</v>
       </c>
       <c r="P27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
       </c>
       <c r="S27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" s="1">
         <v>1</v>
@@ -2737,52 +2819,55 @@
         <v>1</v>
       </c>
       <c r="V27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="1">
         <v>0</v>
       </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
       <c r="AC27" s="1"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>60</v>
       </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1">
         <v>1</v>
       </c>
       <c r="J28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
       </c>
       <c r="L28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="1">
         <v>0</v>
@@ -2800,43 +2885,46 @@
         <v>0</v>
       </c>
       <c r="S28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="1">
         <v>0</v>
       </c>
+      <c r="X28" s="1">
+        <v>0</v>
+      </c>
       <c r="AC28" s="1"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>60</v>
       </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
         <v>1</v>
@@ -2845,16 +2933,16 @@
         <v>1</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1">
         <v>1</v>
       </c>
       <c r="M29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="1">
         <v>0</v>
@@ -2872,35 +2960,38 @@
         <v>0</v>
       </c>
       <c r="S29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="1">
         <v>0</v>
       </c>
+      <c r="X29" s="1">
+        <v>0</v>
+      </c>
       <c r="AC29" s="1"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>24</v>
       </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
       <c r="E30" s="1">
         <v>0</v>
       </c>
@@ -2911,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>
@@ -2923,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -2944,13 +3035,13 @@
         <v>0</v>
       </c>
       <c r="S30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" s="1">
         <v>1</v>
       </c>
       <c r="U30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" s="1">
         <v>0</v>
@@ -2958,38 +3049,41 @@
       <c r="W30" s="1">
         <v>0</v>
       </c>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
       <c r="AC30" s="1"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>11</v>
       </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1">
         <v>1</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -3001,28 +3095,28 @@
         <v>0</v>
       </c>
       <c r="N31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="1">
         <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="1">
         <v>1</v>
       </c>
       <c r="U31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="1">
         <v>0</v>
@@ -3030,41 +3124,44 @@
       <c r="W31" s="1">
         <v>0</v>
       </c>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
       <c r="AC31" s="1"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="1">
+      <c r="D32" s="1">
         <v>72</v>
       </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
         <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3078,11 +3175,11 @@
       <c r="O32">
         <v>0</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="1">
         <v>1</v>
@@ -3097,49 +3194,52 @@
         <v>1</v>
       </c>
       <c r="V32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="1">
         <v>0</v>
       </c>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
       <c r="AC32" s="1"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D33" s="1">
         <v>36</v>
       </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
       <c r="E33" s="1">
         <v>0</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -3150,7 +3250,7 @@
       <c r="O33">
         <v>0</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33">
         <v>0</v>
       </c>
       <c r="Q33" s="1">
@@ -3160,42 +3260,45 @@
         <v>0</v>
       </c>
       <c r="S33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="1">
         <v>0</v>
       </c>
+      <c r="X33" s="1">
+        <v>0</v>
+      </c>
       <c r="AC33" s="1"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="1">
         <v>60</v>
       </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
       <c r="E34" s="1">
         <v>0</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>0</v>
       </c>
       <c r="H34">
@@ -3208,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -3222,14 +3325,14 @@
       <c r="O34">
         <v>0</v>
       </c>
-      <c r="P34" s="1">
-        <v>1</v>
+      <c r="P34">
+        <v>0</v>
       </c>
       <c r="Q34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34" s="1">
         <v>1</v>
@@ -3241,33 +3344,36 @@
         <v>1</v>
       </c>
       <c r="V34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="1">
         <v>0</v>
       </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
       <c r="AC34" s="1"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="1">
+      <c r="D35" s="1">
         <v>36</v>
       </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
       <c r="E35" s="1">
         <v>0</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>0</v>
       </c>
       <c r="H35">
@@ -3294,7 +3400,7 @@
       <c r="O35">
         <v>0</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35">
         <v>0</v>
       </c>
       <c r="Q35" s="1">
@@ -3304,13 +3410,13 @@
         <v>0</v>
       </c>
       <c r="S35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" s="1">
         <v>1</v>
       </c>
       <c r="U35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" s="1">
         <v>0</v>
@@ -3318,32 +3424,35 @@
       <c r="W35" s="1">
         <v>0</v>
       </c>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
       <c r="AC35" s="1"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="1">
+      <c r="D36" s="1">
         <v>36</v>
       </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -3358,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3366,17 +3475,17 @@
       <c r="O36">
         <v>0</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36">
         <v>0</v>
       </c>
       <c r="Q36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" s="1">
         <v>1</v>
@@ -3385,40 +3494,43 @@
         <v>1</v>
       </c>
       <c r="V36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="1">
         <v>0</v>
       </c>
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
       <c r="AC36" s="1"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="1">
+      <c r="D37" s="1">
         <v>24</v>
       </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
       <c r="E37" s="1">
         <v>0</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3427,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3438,7 +3550,7 @@
       <c r="O37">
         <v>0</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37">
         <v>0</v>
       </c>
       <c r="Q37" s="1">
@@ -3448,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="S37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" s="1">
         <v>1</v>
       </c>
       <c r="U37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" s="1">
         <v>0</v>
@@ -3462,32 +3574,35 @@
       <c r="W37" s="1">
         <v>0</v>
       </c>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
       <c r="AC37" s="1"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="1">
+      <c r="D38" s="1">
         <v>132</v>
       </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
       <c r="E38" s="1">
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -3496,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3510,7 +3625,7 @@
       <c r="O38">
         <v>0</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38">
         <v>0</v>
       </c>
       <c r="Q38" s="1">
@@ -3520,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="1">
         <v>1</v>
@@ -3529,33 +3644,36 @@
         <v>1</v>
       </c>
       <c r="V38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38" s="1">
         <v>0</v>
       </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
       <c r="AC38" s="1"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="1">
+      <c r="D39" s="1">
         <v>108</v>
       </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
       <c r="E39" s="1">
         <v>0</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="1">
         <v>0</v>
       </c>
       <c r="H39">
@@ -3582,7 +3700,7 @@
       <c r="O39">
         <v>0</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39">
         <v>0</v>
       </c>
       <c r="Q39" s="1">
@@ -3592,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="S39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" s="1">
         <v>1</v>
@@ -3601,33 +3719,36 @@
         <v>1</v>
       </c>
       <c r="V39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39" s="1">
         <v>0</v>
       </c>
+      <c r="X39" s="1">
+        <v>0</v>
+      </c>
       <c r="AC39" s="1"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="1">
+      <c r="D40" s="1">
         <v>5</v>
       </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
       <c r="E40" s="1">
         <v>0</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <v>0</v>
       </c>
       <c r="H40">
@@ -3654,7 +3775,7 @@
       <c r="O40">
         <v>0</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40">
         <v>0</v>
       </c>
       <c r="Q40" s="1">
@@ -3664,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="S40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" s="1">
         <v>1</v>
@@ -3673,49 +3794,52 @@
         <v>1</v>
       </c>
       <c r="V40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40" s="1">
         <v>0</v>
       </c>
+      <c r="X40" s="1">
+        <v>0</v>
+      </c>
       <c r="AC40" s="1"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="1">
+      <c r="D41" s="1">
         <v>168</v>
       </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -3726,14 +3850,14 @@
       <c r="O41">
         <v>0</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P41">
         <v>0</v>
       </c>
       <c r="Q41" s="1">
         <v>0</v>
       </c>
       <c r="R41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="1">
         <v>1</v>
@@ -3745,34 +3869,37 @@
         <v>1</v>
       </c>
       <c r="V41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="1">
         <v>0</v>
       </c>
+      <c r="X41" s="1">
+        <v>0</v>
+      </c>
       <c r="AC41" s="1"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="1">
+      <c r="D42" s="1">
         <v>20</v>
       </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
       <c r="E42" s="1">
         <v>0</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
       </c>
-      <c r="G42">
-        <v>1</v>
+      <c r="G42" s="1">
+        <v>0</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -3787,7 +3914,7 @@
         <v>1</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -3798,7 +3925,7 @@
       <c r="O42">
         <v>0</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P42">
         <v>0</v>
       </c>
       <c r="Q42" s="1">
@@ -3808,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="S42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" s="1">
         <v>1</v>
@@ -3817,33 +3944,36 @@
         <v>1</v>
       </c>
       <c r="V42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42" s="1">
         <v>0</v>
       </c>
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
       <c r="AC42" s="1"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="1">
+      <c r="D43" s="1">
         <v>3</v>
       </c>
-      <c r="D43" s="1">
-        <v>0</v>
-      </c>
       <c r="E43" s="1">
         <v>0</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1">
         <v>0</v>
       </c>
       <c r="H43">
@@ -3870,7 +4000,7 @@
       <c r="O43">
         <v>0</v>
       </c>
-      <c r="P43" s="1">
+      <c r="P43">
         <v>0</v>
       </c>
       <c r="Q43" s="1">
@@ -3880,10 +4010,10 @@
         <v>0</v>
       </c>
       <c r="S43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" s="1">
         <v>0</v>
@@ -3894,41 +4024,44 @@
       <c r="W43" s="1">
         <v>0</v>
       </c>
+      <c r="X43" s="1">
+        <v>0</v>
+      </c>
       <c r="AC43" s="1"/>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="1">
+      <c r="D44" s="1">
         <v>36</v>
       </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
       <c r="E44" s="1">
         <v>0</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="1">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -3942,20 +4075,20 @@
       <c r="O44">
         <v>0</v>
       </c>
-      <c r="P44" s="1">
-        <v>1</v>
+      <c r="P44">
+        <v>0</v>
       </c>
       <c r="Q44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="1">
         <v>0</v>
       </c>
       <c r="S44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" s="1">
         <v>0</v>
@@ -3966,32 +4099,35 @@
       <c r="W44" s="1">
         <v>0</v>
       </c>
+      <c r="X44" s="1">
+        <v>0</v>
+      </c>
       <c r="AC44" s="1"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="1">
+      <c r="D45" s="1">
         <v>132</v>
       </c>
-      <c r="D45" s="1">
-        <v>0</v>
-      </c>
       <c r="E45" s="1">
         <v>0</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="1">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -4006,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -4014,7 +4150,7 @@
       <c r="O45">
         <v>0</v>
       </c>
-      <c r="P45" s="1">
+      <c r="P45">
         <v>0</v>
       </c>
       <c r="Q45" s="1">
@@ -4024,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T45" s="1">
         <v>1</v>
@@ -4033,43 +4169,46 @@
         <v>1</v>
       </c>
       <c r="V45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45" s="1">
         <v>0</v>
       </c>
+      <c r="X45" s="1">
+        <v>0</v>
+      </c>
       <c r="AC45" s="1"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="1">
+      <c r="D46" s="1">
         <v>36</v>
       </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
       <c r="E46" s="1">
         <v>0</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="1">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -4078,7 +4217,7 @@
         <v>1</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -4086,7 +4225,7 @@
       <c r="O46">
         <v>0</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P46">
         <v>0</v>
       </c>
       <c r="Q46" s="1">
@@ -4096,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="S46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" s="1">
         <v>1</v>
@@ -4105,26 +4244,29 @@
         <v>1</v>
       </c>
       <c r="V46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W46" s="1">
         <v>0</v>
       </c>
+      <c r="X46" s="1">
+        <v>0</v>
+      </c>
       <c r="AC46" s="1"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="1">
+      <c r="D47" s="1">
         <v>12</v>
       </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
       <c r="E47" s="1">
         <v>0</v>
       </c>
@@ -4135,13 +4277,13 @@
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="1">
         <v>1</v>
       </c>
       <c r="J47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="1">
         <v>0</v>
@@ -4168,35 +4310,38 @@
         <v>0</v>
       </c>
       <c r="S47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W47" s="1">
         <v>0</v>
       </c>
+      <c r="X47" s="1">
+        <v>0</v>
+      </c>
       <c r="AC47" s="1"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="1">
+      <c r="D48" s="1">
         <v>12</v>
       </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
       <c r="E48" s="1">
         <v>0</v>
       </c>
@@ -4207,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" s="1">
         <v>1</v>
@@ -4219,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -4240,10 +4385,10 @@
         <v>0</v>
       </c>
       <c r="S48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="1">
         <v>0</v>
@@ -4254,21 +4399,24 @@
       <c r="W48" s="1">
         <v>0</v>
       </c>
+      <c r="X48" s="1">
+        <v>0</v>
+      </c>
       <c r="AC48" s="1"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="1">
+      <c r="D49" s="1">
         <v>6</v>
       </c>
-      <c r="D49" s="1">
-        <v>0</v>
-      </c>
       <c r="E49" s="1">
         <v>0</v>
       </c>
@@ -4285,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
         <v>1</v>
@@ -4297,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="N49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" s="1">
         <v>0</v>
@@ -4312,10 +4460,10 @@
         <v>0</v>
       </c>
       <c r="S49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" s="1">
         <v>0</v>
@@ -4326,32 +4474,35 @@
       <c r="W49" s="1">
         <v>0</v>
       </c>
+      <c r="X49" s="1">
+        <v>0</v>
+      </c>
       <c r="AC49" s="1"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="1">
+      <c r="D50" s="1">
         <v>96</v>
       </c>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
       <c r="E50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
       </c>
       <c r="H50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
@@ -4363,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -4384,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="S50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" s="1">
         <v>1</v>
@@ -4393,26 +4544,29 @@
         <v>1</v>
       </c>
       <c r="V50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
       </c>
+      <c r="X50" s="1">
+        <v>0</v>
+      </c>
       <c r="AC50" s="1"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="1">
+      <c r="D51" s="1">
         <v>60</v>
       </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
       <c r="E51" s="1">
         <v>0</v>
       </c>
@@ -4423,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="1">
         <v>1</v>
@@ -4432,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="1">
         <v>0</v>
@@ -4456,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="S51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51" s="1">
         <v>1</v>
@@ -4465,34 +4619,37 @@
         <v>1</v>
       </c>
       <c r="V51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
       </c>
+      <c r="X51" s="1">
+        <v>0</v>
+      </c>
       <c r="AC51" s="1"/>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="1">
+      <c r="D52" s="1">
         <v>132</v>
       </c>
-      <c r="D52" s="1">
-        <v>0</v>
-      </c>
       <c r="E52" s="1">
         <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="1">
         <v>0</v>
@@ -4501,19 +4658,19 @@
         <v>0</v>
       </c>
       <c r="J52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
         <v>1</v>
       </c>
       <c r="L52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" s="1">
         <v>0</v>
@@ -4525,49 +4682,52 @@
         <v>0</v>
       </c>
       <c r="R52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" s="1">
         <v>1</v>
       </c>
       <c r="T52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W52" s="1">
         <v>0</v>
       </c>
+      <c r="X52" s="1">
+        <v>0</v>
+      </c>
       <c r="AC52" s="1"/>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="1">
+      <c r="D53" s="1">
         <v>72</v>
       </c>
-      <c r="D53" s="1">
-        <v>0</v>
-      </c>
       <c r="E53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
       </c>
       <c r="H53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="1">
         <v>1</v>
@@ -4582,7 +4742,7 @@
         <v>1</v>
       </c>
       <c r="M53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" s="1">
         <v>0</v>
@@ -4600,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="S53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" s="1">
         <v>1</v>
@@ -4609,37 +4769,40 @@
         <v>1</v>
       </c>
       <c r="V53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W53" s="1">
         <v>0</v>
       </c>
+      <c r="X53" s="1">
+        <v>0</v>
+      </c>
       <c r="AC53" s="1"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="1">
+      <c r="D54" s="1">
         <v>12</v>
       </c>
-      <c r="D54" s="1">
-        <v>0</v>
-      </c>
       <c r="E54" s="1">
         <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="1">
         <v>1</v>
@@ -4648,13 +4811,13 @@
         <v>1</v>
       </c>
       <c r="K54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" s="1">
         <v>0</v>
@@ -4672,40 +4835,43 @@
         <v>0</v>
       </c>
       <c r="S54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W54" s="1">
         <v>0</v>
       </c>
+      <c r="X54" s="1">
+        <v>0</v>
+      </c>
       <c r="AC54" s="1"/>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="1">
+      <c r="D55" s="1">
         <v>120</v>
       </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
       <c r="E55" s="1">
         <v>1</v>
       </c>
       <c r="F55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -4714,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="I55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1">
         <v>1</v>
@@ -4729,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="N55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" s="1">
         <v>0</v>
@@ -4744,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="S55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55" s="1">
         <v>0</v>
@@ -4758,26 +4924,29 @@
       <c r="W55" s="1">
         <v>0</v>
       </c>
+      <c r="X55" s="1">
+        <v>0</v>
+      </c>
       <c r="AC55" s="1"/>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="1">
+      <c r="D56" s="1">
         <v>12</v>
       </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
       <c r="E56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -4786,13 +4955,13 @@
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="1">
         <v>0</v>
@@ -4816,35 +4985,38 @@
         <v>0</v>
       </c>
       <c r="S56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W56" s="1">
         <v>0</v>
       </c>
+      <c r="X56" s="1">
+        <v>0</v>
+      </c>
       <c r="AC56" s="1"/>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="1">
+      <c r="D57" s="1">
         <v>9</v>
       </c>
-      <c r="D57" s="1">
-        <v>0</v>
-      </c>
       <c r="E57" s="1">
         <v>0</v>
       </c>
@@ -4852,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="1">
         <v>1</v>
@@ -4870,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="M57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" s="1">
         <v>0</v>
@@ -4888,35 +5060,38 @@
         <v>0</v>
       </c>
       <c r="S57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W57" s="1">
         <v>0</v>
       </c>
+      <c r="X57" s="1">
+        <v>0</v>
+      </c>
       <c r="AC57" s="1"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="1">
+      <c r="D58" s="1">
         <v>5</v>
       </c>
-      <c r="D58" s="1">
-        <v>0</v>
-      </c>
       <c r="E58" s="1">
         <v>0</v>
       </c>
@@ -4927,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="1">
         <v>1</v>
@@ -4942,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="M58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" s="1">
         <v>0</v>
@@ -4960,46 +5135,49 @@
         <v>0</v>
       </c>
       <c r="S58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W58" s="1">
         <v>0</v>
       </c>
+      <c r="X58" s="1">
+        <v>0</v>
+      </c>
       <c r="AC58" s="1"/>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="1">
+      <c r="D59" s="1">
         <v>48</v>
       </c>
-      <c r="D59" s="1">
-        <v>0</v>
-      </c>
       <c r="E59" s="1">
         <v>0</v>
       </c>
       <c r="F59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="1">
         <v>1</v>
@@ -5014,7 +5192,7 @@
         <v>1</v>
       </c>
       <c r="M59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" s="1">
         <v>0</v>
@@ -5032,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59" s="1">
         <v>1</v>
@@ -5041,37 +5219,40 @@
         <v>1</v>
       </c>
       <c r="V59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W59" s="1">
         <v>0</v>
       </c>
+      <c r="X59" s="1">
+        <v>0</v>
+      </c>
       <c r="AC59" s="1"/>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="1">
+      <c r="D60" s="1">
         <v>60</v>
       </c>
-      <c r="D60" s="1">
-        <v>0</v>
-      </c>
       <c r="E60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
       </c>
       <c r="H60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="1">
         <v>1</v>
@@ -5083,7 +5264,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -5104,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="S60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60" s="1">
         <v>1</v>
@@ -5113,26 +5294,29 @@
         <v>1</v>
       </c>
       <c r="V60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W60" s="1">
         <v>0</v>
       </c>
+      <c r="X60" s="1">
+        <v>0</v>
+      </c>
       <c r="AC60" s="1"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C61" s="1">
+      <c r="D61" s="1">
         <v>24</v>
       </c>
-      <c r="D61" s="1">
-        <v>0</v>
-      </c>
       <c r="E61" s="1">
         <v>0</v>
       </c>
@@ -5143,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="1">
         <v>1</v>
@@ -5158,7 +5342,7 @@
         <v>1</v>
       </c>
       <c r="M61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" s="1">
         <v>0</v>
@@ -5176,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T61" s="1">
         <v>1</v>
@@ -5185,26 +5369,29 @@
         <v>1</v>
       </c>
       <c r="V61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W61" s="1">
         <v>0</v>
       </c>
+      <c r="X61" s="1">
+        <v>0</v>
+      </c>
       <c r="AC61" s="1"/>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="1">
+      <c r="D62" s="1">
         <v>6</v>
       </c>
-      <c r="D62" s="1">
-        <v>0</v>
-      </c>
       <c r="E62" s="1">
         <v>0</v>
       </c>
@@ -5215,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" s="1">
         <v>1</v>
@@ -5227,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="L62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -5248,13 +5435,13 @@
         <v>0</v>
       </c>
       <c r="S62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62" s="1">
         <v>1</v>
       </c>
       <c r="U62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V62" s="1">
         <v>0</v>
@@ -5262,21 +5449,24 @@
       <c r="W62" s="1">
         <v>0</v>
       </c>
+      <c r="X62" s="1">
+        <v>0</v>
+      </c>
       <c r="AC62" s="1"/>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C63" s="1">
+      <c r="D63" s="1">
         <v>4</v>
       </c>
-      <c r="D63" s="1">
-        <v>0</v>
-      </c>
       <c r="E63" s="1">
         <v>0</v>
       </c>
@@ -5287,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="1">
         <v>1</v>
@@ -5302,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="M63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" s="1">
         <v>0</v>
@@ -5320,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="S63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63" s="1">
         <v>1</v>
@@ -5329,26 +5519,29 @@
         <v>1</v>
       </c>
       <c r="V63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W63" s="1">
         <v>0</v>
       </c>
+      <c r="X63" s="1">
+        <v>0</v>
+      </c>
       <c r="AC63" s="1"/>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="1">
+      <c r="D64" s="1">
         <v>7</v>
       </c>
-      <c r="D64" s="1">
-        <v>0</v>
-      </c>
       <c r="E64" s="1">
         <v>0</v>
       </c>
@@ -5359,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="1">
         <v>1</v>
@@ -5374,7 +5567,7 @@
         <v>1</v>
       </c>
       <c r="M64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" s="1">
         <v>0</v>
@@ -5392,13 +5585,13 @@
         <v>0</v>
       </c>
       <c r="S64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64" s="1">
         <v>1</v>
       </c>
       <c r="U64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V64" s="1">
         <v>0</v>
@@ -5406,21 +5599,24 @@
       <c r="W64" s="1">
         <v>0</v>
       </c>
+      <c r="X64" s="1">
+        <v>0</v>
+      </c>
       <c r="AC64" s="1"/>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="1">
+      <c r="D65" s="1">
         <v>60</v>
       </c>
-      <c r="D65" s="1">
-        <v>0</v>
-      </c>
       <c r="E65" s="1">
         <v>0</v>
       </c>
@@ -5431,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="1">
         <v>1</v>
@@ -5446,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="M65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" s="1">
         <v>0</v>
@@ -5464,10 +5660,10 @@
         <v>0</v>
       </c>
       <c r="S65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65" s="1">
         <v>0</v>
@@ -5478,21 +5674,24 @@
       <c r="W65" s="1">
         <v>0</v>
       </c>
+      <c r="X65" s="1">
+        <v>0</v>
+      </c>
       <c r="AC65" s="1"/>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C66" s="1">
+      <c r="D66" s="1">
         <v>132</v>
       </c>
-      <c r="D66" s="1">
-        <v>0</v>
-      </c>
       <c r="E66" s="1">
         <v>0</v>
       </c>
@@ -5503,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="1">
         <v>1</v>
@@ -5518,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="M66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" s="1">
         <v>0</v>
@@ -5536,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="S66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66" s="1">
         <v>1</v>
@@ -5545,31 +5744,34 @@
         <v>1</v>
       </c>
       <c r="V66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W66" s="1">
         <v>0</v>
       </c>
+      <c r="X66" s="1">
+        <v>0</v>
+      </c>
       <c r="AC66" s="1"/>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C67" s="1">
+      <c r="D67" s="1">
         <v>30</v>
       </c>
-      <c r="D67" s="1">
-        <v>0</v>
-      </c>
       <c r="E67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -5578,13 +5780,13 @@
         <v>0</v>
       </c>
       <c r="I67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="1">
         <v>1</v>
@@ -5593,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="N67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" s="1">
         <v>0</v>
@@ -5602,13 +5804,13 @@
         <v>0</v>
       </c>
       <c r="Q67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T67" s="1">
         <v>1</v>
@@ -5617,26 +5819,29 @@
         <v>1</v>
       </c>
       <c r="V67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W67" s="1">
         <v>0</v>
       </c>
+      <c r="X67" s="1">
+        <v>0</v>
+      </c>
       <c r="AC67" s="1"/>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C68" s="1">
+      <c r="D68" s="1">
         <v>12</v>
       </c>
-      <c r="D68" s="1">
-        <v>0</v>
-      </c>
       <c r="E68" s="1">
         <v>0</v>
       </c>
@@ -5647,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="1">
         <v>1</v>
@@ -5662,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="M68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" s="1">
         <v>0</v>
@@ -5680,10 +5885,10 @@
         <v>0</v>
       </c>
       <c r="S68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68" s="1">
         <v>0</v>
@@ -5694,21 +5899,24 @@
       <c r="W68" s="1">
         <v>0</v>
       </c>
+      <c r="X68" s="1">
+        <v>0</v>
+      </c>
       <c r="AC68" s="1"/>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="1">
+      <c r="D69" s="1">
         <v>36</v>
       </c>
-      <c r="D69" s="1">
-        <v>0</v>
-      </c>
       <c r="E69" s="1">
         <v>0</v>
       </c>
@@ -5716,13 +5924,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" s="1">
         <v>1</v>
@@ -5731,13 +5939,13 @@
         <v>1</v>
       </c>
       <c r="L69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" s="1">
         <v>0</v>
@@ -5752,40 +5960,43 @@
         <v>0</v>
       </c>
       <c r="S69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W69" s="1">
         <v>0</v>
       </c>
+      <c r="X69" s="1">
+        <v>0</v>
+      </c>
       <c r="AC69" s="1"/>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="1">
+      <c r="D70" s="1">
         <v>12</v>
       </c>
-      <c r="D70" s="1">
-        <v>0</v>
-      </c>
       <c r="E70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
@@ -5800,10 +6011,10 @@
         <v>0</v>
       </c>
       <c r="K70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" s="1">
         <v>0</v>
@@ -5824,35 +6035,38 @@
         <v>0</v>
       </c>
       <c r="S70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W70" s="1">
         <v>0</v>
       </c>
+      <c r="X70" s="1">
+        <v>0</v>
+      </c>
       <c r="AC70" s="1"/>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C71" s="1">
+      <c r="D71" s="1">
         <v>5</v>
       </c>
-      <c r="D71" s="1">
-        <v>0</v>
-      </c>
       <c r="E71" s="1">
         <v>0</v>
       </c>
@@ -5863,19 +6077,19 @@
         <v>0</v>
       </c>
       <c r="H71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="1">
         <v>1</v>
       </c>
       <c r="L71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" s="1">
         <v>0</v>
@@ -5896,35 +6110,38 @@
         <v>0</v>
       </c>
       <c r="S71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W71" s="1">
         <v>0</v>
       </c>
+      <c r="X71" s="1">
+        <v>0</v>
+      </c>
       <c r="AC71" s="1"/>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="1">
+      <c r="D72" s="1">
         <v>11</v>
       </c>
-      <c r="D72" s="1">
-        <v>0</v>
-      </c>
       <c r="E72" s="1">
         <v>0</v>
       </c>
@@ -5935,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" s="1">
         <v>1</v>
@@ -5947,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" s="1">
         <v>0</v>
@@ -5968,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="S72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T72" s="1">
         <v>1</v>
@@ -5977,26 +6194,29 @@
         <v>1</v>
       </c>
       <c r="V72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W72" s="1">
         <v>0</v>
       </c>
+      <c r="X72" s="1">
+        <v>0</v>
+      </c>
       <c r="AC72" s="1"/>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C73" s="1">
+      <c r="D73" s="1">
         <v>48</v>
       </c>
-      <c r="D73" s="1">
-        <v>0</v>
-      </c>
       <c r="E73" s="1">
         <v>0</v>
       </c>
@@ -6004,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" s="1">
         <v>1</v>
@@ -6022,7 +6242,7 @@
         <v>1</v>
       </c>
       <c r="M73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" s="1">
         <v>0</v>
@@ -6034,41 +6254,44 @@
         <v>0</v>
       </c>
       <c r="Q73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W73" s="1">
         <v>0</v>
       </c>
+      <c r="X73" s="1">
+        <v>0</v>
+      </c>
       <c r="AC73" s="1"/>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="1">
+      <c r="D74" s="1">
         <v>96</v>
       </c>
-      <c r="D74" s="1">
-        <v>0</v>
-      </c>
       <c r="E74" s="1">
         <v>0</v>
       </c>
@@ -6079,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" s="1">
         <v>1</v>
@@ -6094,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="M74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74" s="1">
         <v>0</v>
@@ -6112,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="S74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T74" s="1">
         <v>1</v>
@@ -6121,26 +6344,29 @@
         <v>1</v>
       </c>
       <c r="V74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W74" s="1">
         <v>0</v>
       </c>
+      <c r="X74" s="1">
+        <v>0</v>
+      </c>
       <c r="AC74" s="1"/>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="1">
+      <c r="D75" s="1">
         <v>84</v>
       </c>
-      <c r="D75" s="1">
-        <v>0</v>
-      </c>
       <c r="E75" s="1">
         <v>0</v>
       </c>
@@ -6151,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" s="1">
         <v>1</v>
@@ -6160,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="K75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="1">
         <v>0</v>
@@ -6178,19 +6404,19 @@
         <v>0</v>
       </c>
       <c r="Q75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T75" s="1">
         <v>1</v>
       </c>
       <c r="U75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V75" s="1">
         <v>0</v>
@@ -6198,32 +6424,35 @@
       <c r="W75" s="1">
         <v>0</v>
       </c>
+      <c r="X75" s="1">
+        <v>0</v>
+      </c>
       <c r="AC75" s="1"/>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C76" s="1">
+      <c r="D76" s="1">
         <v>132</v>
       </c>
-      <c r="D76" s="1">
-        <v>1</v>
-      </c>
       <c r="E76" s="1">
         <v>1</v>
       </c>
       <c r="F76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="1">
         <v>0</v>
       </c>
       <c r="H76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" s="1">
         <v>1</v>
@@ -6238,7 +6467,7 @@
         <v>1</v>
       </c>
       <c r="M76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76" s="1">
         <v>0</v>
@@ -6256,35 +6485,38 @@
         <v>0</v>
       </c>
       <c r="S76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W76" s="1">
         <v>0</v>
       </c>
+      <c r="X76" s="1">
+        <v>0</v>
+      </c>
       <c r="AC76" s="1"/>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C77" s="1">
+      <c r="D77" s="1">
         <v>40</v>
       </c>
-      <c r="D77" s="1">
-        <v>0</v>
-      </c>
       <c r="E77" s="1">
         <v>0</v>
       </c>
@@ -6295,22 +6527,22 @@
         <v>0</v>
       </c>
       <c r="H77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" s="1">
         <v>0</v>
@@ -6328,13 +6560,13 @@
         <v>0</v>
       </c>
       <c r="S77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T77" s="1">
         <v>1</v>
       </c>
       <c r="U77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V77" s="1">
         <v>0</v>
@@ -6342,21 +6574,24 @@
       <c r="W77" s="1">
         <v>0</v>
       </c>
+      <c r="X77" s="1">
+        <v>0</v>
+      </c>
       <c r="AC77" s="1"/>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="1">
+      <c r="D78" s="1">
         <v>12</v>
       </c>
-      <c r="D78" s="1">
-        <v>0</v>
-      </c>
       <c r="E78" s="1">
         <v>0</v>
       </c>
@@ -6364,13 +6599,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" s="1">
         <v>1</v>
       </c>
       <c r="I78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="1">
         <v>0</v>
@@ -6394,52 +6629,55 @@
         <v>0</v>
       </c>
       <c r="Q78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W78" s="1">
         <v>0</v>
       </c>
+      <c r="X78" s="1">
+        <v>0</v>
+      </c>
       <c r="AC78" s="1"/>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C79" s="1">
+      <c r="D79" s="1">
         <v>96</v>
       </c>
-      <c r="D79" s="1">
-        <v>0</v>
-      </c>
       <c r="E79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="1">
         <v>0</v>
       </c>
       <c r="H79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" s="1">
         <v>1</v>
@@ -6454,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="M79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" s="1">
         <v>0</v>
@@ -6466,13 +6704,13 @@
         <v>0</v>
       </c>
       <c r="Q79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T79" s="1">
         <v>1</v>
@@ -6481,37 +6719,40 @@
         <v>1</v>
       </c>
       <c r="V79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W79" s="1">
         <v>0</v>
       </c>
+      <c r="X79" s="1">
+        <v>0</v>
+      </c>
       <c r="AC79" s="1"/>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C80" s="1">
+      <c r="D80" s="1">
         <v>72</v>
       </c>
-      <c r="D80" s="1">
-        <v>0</v>
-      </c>
       <c r="E80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" s="1">
         <v>1</v>
       </c>
       <c r="G80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" s="1">
         <v>1</v>
@@ -6526,7 +6767,7 @@
         <v>1</v>
       </c>
       <c r="M80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" s="1">
         <v>0</v>
@@ -6541,38 +6782,41 @@
         <v>0</v>
       </c>
       <c r="R80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T80" s="1">
         <v>0</v>
       </c>
       <c r="U80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W80" s="1">
         <v>0</v>
       </c>
+      <c r="X80" s="1">
+        <v>0</v>
+      </c>
       <c r="AC80" s="1"/>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="1">
+      <c r="D81" s="1">
         <v>36</v>
       </c>
-      <c r="D81" s="1">
-        <v>0</v>
-      </c>
       <c r="E81" s="1">
         <v>0</v>
       </c>
@@ -6583,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" s="1">
         <v>1</v>
@@ -6598,7 +6842,7 @@
         <v>1</v>
       </c>
       <c r="M81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81" s="1">
         <v>0</v>
@@ -6616,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="S81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T81" s="1">
         <v>1</v>
@@ -6625,37 +6869,40 @@
         <v>1</v>
       </c>
       <c r="V81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W81" s="1">
         <v>0</v>
       </c>
+      <c r="X81" s="1">
+        <v>0</v>
+      </c>
       <c r="AC81" s="1"/>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C82" s="1">
+      <c r="D82" s="1">
         <v>24</v>
       </c>
-      <c r="D82" s="1">
-        <v>0</v>
-      </c>
       <c r="E82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="1">
         <v>1</v>
       </c>
       <c r="G82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" s="1">
         <v>1</v>
@@ -6667,7 +6914,7 @@
         <v>1</v>
       </c>
       <c r="L82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82" s="1">
         <v>0</v>
@@ -6688,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="S82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T82" s="1">
         <v>1</v>
@@ -6697,26 +6944,29 @@
         <v>1</v>
       </c>
       <c r="V82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W82" s="1">
         <v>0</v>
       </c>
+      <c r="X82" s="1">
+        <v>0</v>
+      </c>
       <c r="AC82" s="1"/>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C83" s="1">
+      <c r="D83" s="1">
         <v>12</v>
       </c>
-      <c r="D83" s="1">
-        <v>0</v>
-      </c>
       <c r="E83" s="1">
         <v>0</v>
       </c>
@@ -6724,13 +6974,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" s="1">
         <v>1</v>
       </c>
       <c r="I83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" s="1">
         <v>0</v>
@@ -6751,44 +7001,47 @@
         <v>0</v>
       </c>
       <c r="P83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="1">
         <v>1</v>
       </c>
       <c r="R83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W83" s="1">
         <v>0</v>
       </c>
+      <c r="X83" s="1">
+        <v>0</v>
+      </c>
       <c r="AC83" s="1"/>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C84" s="1">
+      <c r="D84" s="1">
         <v>24</v>
       </c>
-      <c r="D84" s="1">
-        <v>0</v>
-      </c>
       <c r="E84" s="1">
         <v>0</v>
       </c>
@@ -6796,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" s="1">
         <v>1</v>
@@ -6814,7 +7067,7 @@
         <v>1</v>
       </c>
       <c r="M84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84" s="1">
         <v>0</v>
@@ -6832,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="S84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T84" s="1">
         <v>1</v>
@@ -6841,28 +7094,31 @@
         <v>1</v>
       </c>
       <c r="V84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W84" s="1">
         <v>0</v>
       </c>
+      <c r="X84" s="1">
+        <v>0</v>
+      </c>
       <c r="AC84" s="1"/>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C85" s="1">
+      <c r="D85" s="1">
         <v>96</v>
       </c>
-      <c r="D85" s="1">
-        <v>1</v>
-      </c>
       <c r="E85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -6871,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="H85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" s="1">
         <v>1</v>
@@ -6880,7 +7136,7 @@
         <v>1</v>
       </c>
       <c r="K85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" s="1">
         <v>0</v>
@@ -6904,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="S85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T85" s="1">
         <v>1</v>
@@ -6913,37 +7169,40 @@
         <v>1</v>
       </c>
       <c r="V85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W85" s="1">
         <v>0</v>
       </c>
+      <c r="X85" s="1">
+        <v>0</v>
+      </c>
       <c r="AC85" s="1"/>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C86" s="1">
+      <c r="D86" s="1">
         <v>48</v>
       </c>
-      <c r="D86" s="1">
-        <v>0</v>
-      </c>
       <c r="E86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" s="1">
         <v>0</v>
       </c>
       <c r="H86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" s="1">
         <v>1</v>
@@ -6958,7 +7217,7 @@
         <v>1</v>
       </c>
       <c r="M86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86" s="1">
         <v>0</v>
@@ -6976,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="S86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T86" s="1">
         <v>1</v>
@@ -6985,26 +7244,29 @@
         <v>1</v>
       </c>
       <c r="V86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W86" s="1">
         <v>0</v>
       </c>
+      <c r="X86" s="1">
+        <v>0</v>
+      </c>
       <c r="AC86" s="1"/>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C87" s="1">
+      <c r="D87" s="1">
         <v>36</v>
       </c>
-      <c r="D87" s="1">
-        <v>0</v>
-      </c>
       <c r="E87" s="1">
         <v>0</v>
       </c>
@@ -7015,13 +7277,13 @@
         <v>0</v>
       </c>
       <c r="H87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" s="1">
         <v>1</v>
@@ -7030,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="M87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87" s="1">
         <v>0</v>
@@ -7039,22 +7301,22 @@
         <v>0</v>
       </c>
       <c r="P87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87" s="1">
         <v>1</v>
       </c>
       <c r="R87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T87" s="1">
         <v>1</v>
       </c>
       <c r="U87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V87" s="1">
         <v>0</v>
@@ -7062,32 +7324,35 @@
       <c r="W87" s="1">
         <v>0</v>
       </c>
+      <c r="X87" s="1">
+        <v>0</v>
+      </c>
       <c r="AC87" s="1"/>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C88" s="1">
+      <c r="D88" s="1">
         <v>24</v>
       </c>
-      <c r="D88" s="1">
-        <v>0</v>
-      </c>
       <c r="E88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" s="1">
         <v>1</v>
       </c>
       <c r="G88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" s="1">
         <v>1</v>
@@ -7099,7 +7364,7 @@
         <v>1</v>
       </c>
       <c r="L88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" s="1">
         <v>0</v>
@@ -7120,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="S88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T88" s="1">
         <v>1</v>
@@ -7129,26 +7394,29 @@
         <v>1</v>
       </c>
       <c r="V88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W88" s="1">
         <v>0</v>
       </c>
+      <c r="X88" s="1">
+        <v>0</v>
+      </c>
       <c r="AC88" s="1"/>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C89" s="1">
+      <c r="D89" s="1">
         <v>12</v>
       </c>
-      <c r="D89" s="1">
-        <v>0</v>
-      </c>
       <c r="E89" s="1">
         <v>0</v>
       </c>
@@ -7156,13 +7424,13 @@
         <v>0</v>
       </c>
       <c r="G89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" s="1">
         <v>1</v>
       </c>
       <c r="I89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" s="1">
         <v>0</v>
@@ -7183,44 +7451,47 @@
         <v>0</v>
       </c>
       <c r="P89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="1">
         <v>1</v>
       </c>
       <c r="R89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W89" s="1">
         <v>0</v>
       </c>
+      <c r="X89" s="1">
+        <v>0</v>
+      </c>
       <c r="AC89" s="1"/>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C90" s="1">
+      <c r="D90" s="1">
         <v>24</v>
       </c>
-      <c r="D90" s="1">
-        <v>0</v>
-      </c>
       <c r="E90" s="1">
         <v>0</v>
       </c>
@@ -7228,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" s="1">
         <v>1</v>
@@ -7246,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="M90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90" s="1">
         <v>0</v>
@@ -7264,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="S90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T90" s="1">
         <v>1</v>
@@ -7273,28 +7544,31 @@
         <v>1</v>
       </c>
       <c r="V90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W90" s="1">
         <v>0</v>
       </c>
+      <c r="X90" s="1">
+        <v>0</v>
+      </c>
       <c r="AC90" s="1"/>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C91" s="1">
+      <c r="D91" s="1">
         <v>96</v>
       </c>
-      <c r="D91" s="1">
-        <v>1</v>
-      </c>
       <c r="E91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -7303,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" s="1">
         <v>1</v>
@@ -7312,7 +7586,7 @@
         <v>1</v>
       </c>
       <c r="K91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" s="1">
         <v>0</v>
@@ -7336,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="S91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T91" s="1">
         <v>1</v>
@@ -7345,37 +7619,40 @@
         <v>1</v>
       </c>
       <c r="V91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W91" s="1">
         <v>0</v>
       </c>
+      <c r="X91" s="1">
+        <v>0</v>
+      </c>
       <c r="AC91" s="1"/>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C92" s="1">
+      <c r="D92" s="1">
         <v>48</v>
       </c>
-      <c r="D92" s="1">
-        <v>0</v>
-      </c>
       <c r="E92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" s="1">
         <v>0</v>
       </c>
       <c r="H92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" s="1">
         <v>1</v>
@@ -7390,7 +7667,7 @@
         <v>1</v>
       </c>
       <c r="M92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N92" s="1">
         <v>0</v>
@@ -7408,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="S92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T92" s="1">
         <v>1</v>
@@ -7417,26 +7694,29 @@
         <v>1</v>
       </c>
       <c r="V92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W92" s="1">
         <v>0</v>
       </c>
+      <c r="X92" s="1">
+        <v>0</v>
+      </c>
       <c r="AC92" s="1"/>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C93" s="1">
+      <c r="D93" s="1">
         <v>36</v>
       </c>
-      <c r="D93" s="1">
-        <v>0</v>
-      </c>
       <c r="E93" s="1">
         <v>0</v>
       </c>
@@ -7447,13 +7727,13 @@
         <v>0</v>
       </c>
       <c r="H93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" s="1">
         <v>1</v>
@@ -7462,7 +7742,7 @@
         <v>1</v>
       </c>
       <c r="M93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N93" s="1">
         <v>0</v>
@@ -7471,27 +7751,30 @@
         <v>0</v>
       </c>
       <c r="P93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93" s="1">
         <v>1</v>
       </c>
       <c r="R93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T93" s="1">
         <v>1</v>
       </c>
       <c r="U93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V93" s="1">
         <v>0</v>
       </c>
       <c r="W93" s="1">
+        <v>0</v>
+      </c>
+      <c r="X93" s="1">
         <v>0</v>
       </c>
       <c r="AC93" s="1"/>
